--- a/data/andoks-competitors.xlsx
+++ b/data/andoks-competitors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\WEBCAST\ad_hocs\2025-12-08_Andoks cascade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\WEBCAST\ad_hocs\2025-12-08_Andoks cascade\andoks-site-selection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7C847E-5E12-457F-A14B-15AB040771A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D134AC-1997-4083-B309-BE53AC21FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76C24BF0-F4A1-4CC9-BE4D-B4C176E79102}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
   <si>
     <t>address</t>
   </si>
@@ -53,24 +53,15 @@
     <t>Brgy. Poblacion, Bustos, Bulacan (near Mercury Drug)</t>
   </si>
   <si>
-    <t>Chooks-to-Go</t>
-  </si>
-  <si>
     <t>Sta. Rita, Guiguinto, Bulacan</t>
   </si>
   <si>
     <t>A. Mabini St., Malolos, Bulacan</t>
   </si>
   <si>
-    <t>Sr. Pedro Lechon Manok</t>
-  </si>
-  <si>
     <t>Marilao Public Market, Marilao, Bulacan</t>
   </si>
   <si>
-    <t>Baliwag Lechon Manok</t>
-  </si>
-  <si>
     <t>Poblacion, San Rafael, Bulacan</t>
   </si>
   <si>
@@ -80,10 +71,16 @@
     <t>San Vicente, Santa Maria, Bulacan</t>
   </si>
   <si>
-    <t>Any-Haw Litson Manok</t>
-  </si>
-  <si>
     <t>Sapang Palay II, San Jose del Monte, Bulacan</t>
+  </si>
+  <si>
+    <t>Chooks to Go</t>
+  </si>
+  <si>
+    <t>Baliwag Lechon</t>
+  </si>
+  <si>
+    <t>Lechon Manok ni Sr. Pedro</t>
   </si>
 </sst>
 </file>
@@ -455,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327F20DF-DA2D-4C71-A0B4-E4BB2C91210E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,111 +485,441 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>14.954700300000001</v>
+        <v>14.8716279</v>
       </c>
       <c r="C2">
-        <v>120.9159131</v>
+        <v>120.8616286</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>14.839914200000001</v>
+        <v>14.851498100000001</v>
       </c>
       <c r="C3">
-        <v>120.8707364</v>
+        <v>120.81586729999999</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>14.9617924</v>
+        <v>14.8003883</v>
       </c>
       <c r="C4">
-        <v>120.9067087</v>
+        <v>120.92373430000001</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>14.761635</v>
+        <v>14.8364861</v>
       </c>
       <c r="C5">
-        <v>120.9489988</v>
+        <v>120.78697870000001</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>14.957037700000001</v>
+        <v>14.912802900000001</v>
       </c>
       <c r="C6">
-        <v>120.9654037</v>
+        <v>120.76655340000001</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>14.8289779</v>
+        <v>14.885951499999999</v>
       </c>
       <c r="C7">
-        <v>120.9761599</v>
+        <v>120.8589558</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>14.8091662</v>
+        <v>14.8686773</v>
       </c>
       <c r="C8">
-        <v>121.0048384</v>
+        <v>120.8021336</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>14.843349</v>
+        <v>14.8233368</v>
       </c>
       <c r="C9">
-        <v>121.0363768</v>
+        <v>120.9538739</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>14.7662236</v>
+      </c>
+      <c r="C10">
+        <v>120.996634</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>14.840206200000001</v>
+      </c>
+      <c r="C11">
+        <v>120.74042679999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>14.7443385</v>
+      </c>
+      <c r="C12">
+        <v>120.9707882</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>14.8280513</v>
+      </c>
+      <c r="C13">
+        <v>120.8763154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>14.7812707</v>
+      </c>
+      <c r="C14">
+        <v>120.9353567</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>14.7624177</v>
+      </c>
+      <c r="C15">
+        <v>120.9483066</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>14.8534585</v>
+      </c>
+      <c r="C16">
+        <v>120.8607446</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>14.8407169</v>
+      </c>
+      <c r="C17">
+        <v>120.861446</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>14.8940707</v>
+      </c>
+      <c r="C18">
+        <v>120.7790445</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>14.819648600000001</v>
+      </c>
+      <c r="C19">
+        <v>120.9042869</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>14.8179281</v>
+      </c>
+      <c r="C20">
+        <v>120.9059894</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>14.757009800000001</v>
+      </c>
+      <c r="C21">
+        <v>120.95418069999999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>14.757712700000001</v>
+      </c>
+      <c r="C22">
+        <v>120.963266</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>14.7926526</v>
+      </c>
+      <c r="C23">
+        <v>120.8791063</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>14.7353912</v>
+      </c>
+      <c r="C24">
+        <v>120.9575609</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>14.9022959</v>
+      </c>
+      <c r="C25">
+        <v>120.849436</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>14.887753</v>
+      </c>
+      <c r="C26">
+        <v>120.9669466</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>15.0787116</v>
+      </c>
+      <c r="C27">
+        <v>120.94066429999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>14.8862936</v>
+      </c>
+      <c r="C28">
+        <v>120.86759360000001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>14.8198267</v>
+      </c>
+      <c r="C29">
+        <v>120.9630624</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>14.886931000000001</v>
+      </c>
+      <c r="C30">
+        <v>120.8679547</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>14.839252</v>
+      </c>
+      <c r="C31">
+        <v>120.85991180000001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>14.7688442</v>
+      </c>
+      <c r="C32">
+        <v>120.9967441</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>14.7339547</v>
+      </c>
+      <c r="C33">
+        <v>120.9611707</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>14.7353173</v>
+      </c>
+      <c r="C34">
+        <v>120.9612501</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>14.747624500000001</v>
+      </c>
+      <c r="C35">
+        <v>120.9732312</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>14.889316900000001</v>
+      </c>
+      <c r="C36">
+        <v>120.86733150000001</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>14.766159699999999</v>
+      </c>
+      <c r="C37">
+        <v>120.9956438</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>14.822618</v>
+      </c>
+      <c r="C38">
+        <v>120.95326439999999</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>14.8658526</v>
+      </c>
+      <c r="C39">
+        <v>120.85978230000001</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
